--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -445,197 +445,121 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>prod-001</v>
+        <v>prod-002</v>
       </c>
       <c r="B2" t="str">
-        <v>iPhone 14 Pro</v>
+        <v>Samsung Galaxy Watch 5</v>
       </c>
       <c r="C2" t="str">
-        <v>Latest Apple iPhone with advanced camera system</v>
+        <v>Advanced smartwatch with health monitoring</v>
       </c>
       <c r="D2">
-        <v>99999</v>
+        <v>25999</v>
       </c>
       <c r="E2">
-        <v>75000</v>
+        <v>20000</v>
       </c>
       <c r="F2" t="str">
         <v>Electronics</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="str">
-        <v>Apple India</v>
+        <v>Samsung Electronics</v>
       </c>
       <c r="J2" t="str">
-        <v>APPLE-IP14PRO-128</v>
+        <v>SAMSUNG-GW5-44MM</v>
       </c>
       <c r="K2">
-        <v>45292</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2025-09-03T13:19:39.402Z</v>
+        <v>45293</v>
+      </c>
+      <c r="L2">
+        <v>45301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>prod-002</v>
+        <v>prod-003</v>
       </c>
       <c r="B3" t="str">
-        <v>Samsung Galaxy Watch 5</v>
+        <v>MacBook Air M2</v>
       </c>
       <c r="C3" t="str">
-        <v>Advanced smartwatch with health monitoring</v>
+        <v>Lightweight laptop with M2 chip</v>
       </c>
       <c r="D3">
-        <v>25999</v>
+        <v>119999</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>95000</v>
       </c>
       <c r="F3" t="str">
-        <v>Electronics</v>
+        <v>Computers</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="str">
-        <v>Samsung Electronics</v>
+        <v>Apple India</v>
       </c>
       <c r="J3" t="str">
-        <v>SAMSUNG-GW5-44MM</v>
+        <v>APPLE-MBA-M2-256</v>
       </c>
       <c r="K3">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="L3">
-        <v>45301</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>prod-003</v>
+        <v>prod-004</v>
       </c>
       <c r="B4" t="str">
-        <v>MacBook Air M2</v>
+        <v>AirPods Pro</v>
       </c>
       <c r="C4" t="str">
-        <v>Lightweight laptop with M2 chip</v>
+        <v>Wireless earbuds with active noise cancellation</v>
       </c>
       <c r="D4">
-        <v>119999</v>
+        <v>24900</v>
       </c>
       <c r="E4">
-        <v>95000</v>
+        <v>18000</v>
       </c>
       <c r="F4" t="str">
-        <v>Computers</v>
+        <v>Audio</v>
       </c>
       <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
         <v>5</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
       </c>
       <c r="I4" t="str">
         <v>Apple India</v>
       </c>
       <c r="J4" t="str">
-        <v>APPLE-MBA-M2-256</v>
+        <v>APPLE-APP-2ND-GEN</v>
       </c>
       <c r="K4">
-        <v>45294</v>
-      </c>
-      <c r="L4">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>prod-004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>AirPods Pro</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Wireless earbuds with active noise cancellation</v>
-      </c>
-      <c r="D5">
-        <v>24900</v>
-      </c>
-      <c r="E5">
-        <v>18000</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Audio</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Apple India</v>
-      </c>
-      <c r="J5" t="str">
-        <v>APPLE-APP-2ND-GEN</v>
-      </c>
-      <c r="K5">
         <v>45295</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L4" t="str">
         <v>2025-09-08T11:06:46.594Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>prod-005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Dell XPS 13</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Premium ultrabook for professionals</v>
-      </c>
-      <c r="D6">
-        <v>95999</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Computers</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Dell Technologies</v>
-      </c>
-      <c r="J6" t="str">
-        <v>DELL-XPS13-I7-512</v>
-      </c>
-      <c r="K6">
-        <v>45296</v>
-      </c>
-      <c r="L6">
-        <v>45305</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -400,104 +400,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>description</v>
+      </c>
+      <c r="C1" t="str">
+        <v>price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>cost_price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>category</v>
+      </c>
+      <c r="F1" t="str">
+        <v>stock</v>
+      </c>
+      <c r="G1" t="str">
+        <v>min_stock</v>
+      </c>
+      <c r="H1" t="str">
+        <v>supplier</v>
+      </c>
+      <c r="I1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="J1" t="str">
         <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>price</v>
-      </c>
-      <c r="E1" t="str">
-        <v>cost_price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>category</v>
-      </c>
-      <c r="G1" t="str">
-        <v>stock</v>
-      </c>
-      <c r="H1" t="str">
-        <v>min_stock</v>
-      </c>
-      <c r="I1" t="str">
-        <v>supplier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>sku</v>
       </c>
       <c r="K1" t="str">
         <v>created_date</v>
       </c>
       <c r="L1" t="str">
         <v>last_updated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>amul</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>100</v>
+      </c>
+      <c r="D2" t="str">
+        <v>50</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Food</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>285f3854-cbf2-4ba5-b477-5cda3035ab2d</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2025-09-12T12:06:21.787Z</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-09-12T12:06:48.292Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="C1" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>customer_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>payment_method</v>
+      </c>
+      <c r="F1" t="str">
+        <v>cashier</v>
+      </c>
+      <c r="G1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="H1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="C1" t="str">
+      <c r="I1" t="str">
         <v>product_name</v>
       </c>
-      <c r="D1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="E1" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
         <v>total_amount</v>
       </c>
-      <c r="G1" t="str">
+      <c r="K1" t="str">
         <v>profit</v>
       </c>
-      <c r="H1" t="str">
-        <v>customer_name</v>
-      </c>
-      <c r="I1" t="str">
-        <v>payment_method</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>sale_date</v>
       </c>
-      <c r="K1" t="str">
-        <v>cashier</v>
-      </c>
-      <c r="L1" t="str">
-        <v>notes</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>285f3854-cbf2-4ba5-b477-5cda3035ab2d</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="str">
+        <v>100</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Zeeshan</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v>937b64d0-f047-42cc-b7ea-14a294d8ed1c</v>
+      </c>
+      <c r="I2" t="str">
+        <v>amul</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2000</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-09-12T12:06:48.282Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -400,180 +400,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>description</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>price</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>cost_price</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>category</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>stock</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>min_stock</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>supplier</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>sku</v>
-      </c>
-      <c r="J1" t="str">
-        <v>id</v>
       </c>
       <c r="K1" t="str">
         <v>created_date</v>
       </c>
       <c r="L1" t="str">
         <v>last_updated</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>amul</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v>100</v>
-      </c>
-      <c r="D2" t="str">
-        <v>50</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Food</v>
-      </c>
-      <c r="F2">
-        <v>80</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v>285f3854-cbf2-4ba5-b477-5cda3035ab2d</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2025-09-12T12:06:21.787Z</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2025-09-12T12:06:48.292Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>product_id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="D1" t="str">
         <v>quantity</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>unit_price</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
+        <v>total_amount</v>
+      </c>
+      <c r="G1" t="str">
+        <v>profit</v>
+      </c>
+      <c r="H1" t="str">
         <v>customer_name</v>
       </c>
-      <c r="E1" t="str">
+      <c r="I1" t="str">
         <v>payment_method</v>
       </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
+        <v>sale_date</v>
+      </c>
+      <c r="K1" t="str">
         <v>cashier</v>
       </c>
-      <c r="G1" t="str">
+      <c r="L1" t="str">
         <v>notes</v>
-      </c>
-      <c r="H1" t="str">
-        <v>id</v>
-      </c>
-      <c r="I1" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="J1" t="str">
-        <v>total_amount</v>
-      </c>
-      <c r="K1" t="str">
-        <v>profit</v>
-      </c>
-      <c r="L1" t="str">
-        <v>sale_date</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>285f3854-cbf2-4ba5-b477-5cda3035ab2d</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="str">
-        <v>100</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Zeeshan</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Cash</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v>937b64d0-f047-42cc-b7ea-14a294d8ed1c</v>
-      </c>
-      <c r="I2" t="str">
-        <v>amul</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2000</v>
-      </c>
-      <c r="K2" t="str">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2025-09-12T12:06:48.282Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -400,147 +400,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>description</v>
+      </c>
+      <c r="C1" t="str">
+        <v>price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>cost_price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>category</v>
+      </c>
+      <c r="F1" t="str">
+        <v>stock</v>
+      </c>
+      <c r="G1" t="str">
+        <v>min_stock</v>
+      </c>
+      <c r="H1" t="str">
+        <v>supplier</v>
+      </c>
+      <c r="I1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="J1" t="str">
         <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>price</v>
-      </c>
-      <c r="E1" t="str">
-        <v>cost_price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>category</v>
-      </c>
-      <c r="G1" t="str">
-        <v>stock</v>
-      </c>
-      <c r="H1" t="str">
-        <v>min_stock</v>
-      </c>
-      <c r="I1" t="str">
-        <v>supplier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>sku</v>
       </c>
       <c r="K1" t="str">
         <v>created_date</v>
       </c>
       <c r="L1" t="str">
         <v>last_updated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Amul Butter (500g)</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F2">
+        <v>450</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>79bf20ff-9535-45ea-9dcd-a9596ae5258a</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2025-09-23T11:20:28.437Z</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-09-23T11:20:38.822Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="C1" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>customer_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>payment_method</v>
+      </c>
+      <c r="F1" t="str">
+        <v>cashier</v>
+      </c>
+      <c r="G1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="H1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="C1" t="str">
+      <c r="I1" t="str">
         <v>product_name</v>
       </c>
-      <c r="D1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="E1" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
         <v>total_amount</v>
       </c>
-      <c r="G1" t="str">
+      <c r="K1" t="str">
         <v>profit</v>
       </c>
-      <c r="H1" t="str">
-        <v>customer_name</v>
-      </c>
-      <c r="I1" t="str">
-        <v>payment_method</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>sale_date</v>
       </c>
-      <c r="K1" t="str">
-        <v>cashier</v>
-      </c>
-      <c r="L1" t="str">
-        <v>notes</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>79bf20ff-9535-45ea-9dcd-a9596ae5258a</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v>cae2620a-9922-4239-8ac5-97c254e4019b</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Amul Butter (500g)</v>
+      </c>
+      <c r="J2" t="str">
+        <v>50000</v>
+      </c>
+      <c r="K2" t="str">
+        <v>49500</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-09-23T11:20:38.815Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>category</v>
+      </c>
+      <c r="B1" t="str">
+        <v>description</v>
+      </c>
+      <c r="C1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="D1" t="str">
+        <v>payment_method</v>
+      </c>
+      <c r="E1" t="str">
+        <v>vendor</v>
+      </c>
+      <c r="F1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="G1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
-        <v>category</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>amount</v>
-      </c>
-      <c r="E1" t="str">
-        <v>payment_method</v>
-      </c>
-      <c r="F1" t="str">
-        <v>vendor</v>
-      </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>expense_date</v>
       </c>
-      <c r="H1" t="str">
-        <v>receipt_number</v>
-      </c>
-      <c r="I1" t="str">
-        <v>notes</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Rent</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>ed6c6149-eea7-457f-95a8-eb25cdf5b985</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2025-09-23T11:26:47.809Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -400,246 +400,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>description</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>price</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>cost_price</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>category</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>stock</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>min_stock</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>supplier</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>sku</v>
-      </c>
-      <c r="J1" t="str">
-        <v>id</v>
       </c>
       <c r="K1" t="str">
         <v>created_date</v>
       </c>
       <c r="L1" t="str">
         <v>last_updated</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Amul Butter (500g)</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="str">
-        <v>10</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F2">
-        <v>450</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v>79bf20ff-9535-45ea-9dcd-a9596ae5258a</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2025-09-23T11:20:28.437Z</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2025-09-23T11:20:38.822Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>product_id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="D1" t="str">
         <v>quantity</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>unit_price</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
+        <v>total_amount</v>
+      </c>
+      <c r="G1" t="str">
+        <v>profit</v>
+      </c>
+      <c r="H1" t="str">
         <v>customer_name</v>
       </c>
-      <c r="E1" t="str">
+      <c r="I1" t="str">
         <v>payment_method</v>
       </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
+        <v>sale_date</v>
+      </c>
+      <c r="K1" t="str">
         <v>cashier</v>
       </c>
-      <c r="G1" t="str">
+      <c r="L1" t="str">
         <v>notes</v>
-      </c>
-      <c r="H1" t="str">
-        <v>id</v>
-      </c>
-      <c r="I1" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="J1" t="str">
-        <v>total_amount</v>
-      </c>
-      <c r="K1" t="str">
-        <v>profit</v>
-      </c>
-      <c r="L1" t="str">
-        <v>sale_date</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>79bf20ff-9535-45ea-9dcd-a9596ae5258a</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v>Cash</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Admin</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v>cae2620a-9922-4239-8ac5-97c254e4019b</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Amul Butter (500g)</v>
-      </c>
-      <c r="J2" t="str">
-        <v>50000</v>
-      </c>
-      <c r="K2" t="str">
-        <v>49500</v>
-      </c>
-      <c r="L2" t="str">
-        <v>2025-09-23T11:20:38.815Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>category</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>description</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>amount</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>payment_method</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>vendor</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
+        <v>expense_date</v>
+      </c>
+      <c r="H1" t="str">
+        <v>receipt_number</v>
+      </c>
+      <c r="I1" t="str">
         <v>notes</v>
-      </c>
-      <c r="G1" t="str">
-        <v>id</v>
-      </c>
-      <c r="H1" t="str">
-        <v>expense_date</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Rent</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Cash</v>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v>ed6c6149-eea7-457f-95a8-eb25cdf5b985</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2025-09-23T11:26:47.809Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -400,147 +400,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>description</v>
+      </c>
+      <c r="C1" t="str">
+        <v>price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>cost_price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>category</v>
+      </c>
+      <c r="F1" t="str">
+        <v>stock</v>
+      </c>
+      <c r="G1" t="str">
+        <v>min_stock</v>
+      </c>
+      <c r="H1" t="str">
+        <v>supplier</v>
+      </c>
+      <c r="I1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="J1" t="str">
         <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>price</v>
-      </c>
-      <c r="E1" t="str">
-        <v>cost_price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>category</v>
-      </c>
-      <c r="G1" t="str">
-        <v>stock</v>
-      </c>
-      <c r="H1" t="str">
-        <v>min_stock</v>
-      </c>
-      <c r="I1" t="str">
-        <v>supplier</v>
-      </c>
-      <c r="J1" t="str">
-        <v>sku</v>
       </c>
       <c r="K1" t="str">
         <v>created_date</v>
       </c>
       <c r="L1" t="str">
         <v>last_updated</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Amul Butter (500g)</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Food</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>07291cea-a90f-4352-b915-1121e63dcb59</v>
+      </c>
+      <c r="K2" t="str">
+        <v>2025-09-23T12:50:58.115Z</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-09-23T12:51:14.513Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="C1" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="D1" t="str">
+        <v>customer_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>payment_method</v>
+      </c>
+      <c r="F1" t="str">
+        <v>cashier</v>
+      </c>
+      <c r="G1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="H1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="C1" t="str">
+      <c r="I1" t="str">
         <v>product_name</v>
       </c>
-      <c r="D1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="E1" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
         <v>total_amount</v>
       </c>
-      <c r="G1" t="str">
+      <c r="K1" t="str">
         <v>profit</v>
       </c>
-      <c r="H1" t="str">
-        <v>customer_name</v>
-      </c>
-      <c r="I1" t="str">
-        <v>payment_method</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>sale_date</v>
       </c>
-      <c r="K1" t="str">
-        <v>cashier</v>
-      </c>
-      <c r="L1" t="str">
-        <v>notes</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>07291cea-a90f-4352-b915-1121e63dcb59</v>
+      </c>
+      <c r="B2">
+        <v>71</v>
+      </c>
+      <c r="C2" t="str">
+        <v>500</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v>9cbf4f85-2a79-4a90-8951-8c7ed4927e8d</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Amul Butter (500g)</v>
+      </c>
+      <c r="J2" t="str">
+        <v>35500</v>
+      </c>
+      <c r="K2" t="str">
+        <v>28400</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2025-09-23T12:51:14.506Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>category</v>
+      </c>
+      <c r="B1" t="str">
+        <v>description</v>
+      </c>
+      <c r="C1" t="str">
+        <v>amount</v>
+      </c>
+      <c r="D1" t="str">
+        <v>payment_method</v>
+      </c>
+      <c r="E1" t="str">
+        <v>vendor</v>
+      </c>
+      <c r="F1" t="str">
+        <v>notes</v>
+      </c>
+      <c r="G1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
-        <v>category</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>amount</v>
-      </c>
-      <c r="E1" t="str">
-        <v>payment_method</v>
-      </c>
-      <c r="F1" t="str">
-        <v>vendor</v>
-      </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>expense_date</v>
       </c>
-      <c r="H1" t="str">
-        <v>receipt_number</v>
-      </c>
-      <c r="I1" t="str">
-        <v>notes</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Utilities</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Random</v>
+      </c>
+      <c r="C2" t="str">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>0f1d1996-63c0-461d-b044-35309c9cda10</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2025-09-23T12:51:31.350Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -460,7 +460,7 @@
         <v>Food</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>2025-09-23T12:50:58.115Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2025-09-23T12:51:14.513Z</v>
+        <v>2025-09-23T13:02:08.605Z</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -571,9 +571,47 @@
         <v>2025-09-23T12:51:14.506Z</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>07291cea-a90f-4352-b915-1121e63dcb59</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="str">
+        <v>500</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v>e66c2199-14fc-46af-b2ee-ed7812584635</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Amul Butter (500g)</v>
+      </c>
+      <c r="J3" t="str">
+        <v>5000</v>
+      </c>
+      <c r="K3" t="str">
+        <v>4000</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2025-09-23T13:02:08.595Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/shop_data.xlsx
+++ b/data/shop_data.xlsx
@@ -460,7 +460,7 @@
         <v>Food</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -478,7 +478,7 @@
         <v>2025-09-23T12:50:58.115Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2025-09-23T13:02:08.605Z</v>
+        <v>2025-09-23T13:05:26.195Z</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -609,9 +609,47 @@
         <v>2025-09-23T13:02:08.595Z</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>07291cea-a90f-4352-b915-1121e63dcb59</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>500</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>15ca83ea-a74c-421a-911c-b93c602bde13</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Amul Butter (500g)</v>
+      </c>
+      <c r="J4" t="str">
+        <v>500</v>
+      </c>
+      <c r="K4" t="str">
+        <v>400</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2025-09-23T13:05:26.171Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
